--- a/excercises simple/8.Basic well.xlsx
+++ b/excercises simple/8.Basic well.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr updateLinks="always" codeName="Workbook________" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises simple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858D8D5-BF88-4B5A-876C-8788D1BD199C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E1CDA2-119A-4605-AEF9-68A713D4F733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21810" yWindow="4020" windowWidth="21420" windowHeight="19530" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESP" sheetId="112" r:id="rId1"/>
@@ -1235,7 +1235,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1415,7 +1415,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1453,7 +1453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -1533,7 +1533,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1571,7 +1571,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -1637,7 +1637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1675,7 +1675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="731450031"/>
@@ -1732,7 +1732,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1769,7 +1769,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1846,7 +1846,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2026,7 +2026,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2064,7 +2064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -2144,7 +2144,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2182,7 +2182,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -2248,7 +2248,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2286,7 +2286,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="731447951"/>
@@ -2343,7 +2343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2380,7 +2380,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2457,7 +2457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2623,7 +2623,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2661,7 +2661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1493377664"/>
@@ -2742,7 +2742,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2780,7 +2780,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1633602352"/>
@@ -2822,7 +2822,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2859,7 +2859,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4830,7 +4830,7 @@
       <definedName name="ESP_Power_W"/>
       <definedName name="IPR_PI_sm3dayatm"/>
       <definedName name="Nodal_Qliq_scm3day"/>
-      <definedName name="PVT_Encode_string"/>
+      <definedName name="PVT_encode_string"/>
       <definedName name="Well_calc"/>
       <definedName name="Well_Encode_string"/>
       <definedName name="Well_Plin_Pwf_atma"/>
@@ -5147,42 +5147,42 @@
   </sheetPr>
   <dimension ref="A1:V118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="32" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.265625" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" customWidth="1"/>
+    <col min="12" max="12" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="32" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="11" t="s">
         <v>14</v>
       </c>
@@ -5328,7 +5328,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B20" s="10" t="s">
         <v>20</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B22" s="10" t="s">
         <v>45</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" ht="15.4" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" ht="15" x14ac:dyDescent="0.5">
       <c r="B24" s="10" t="s">
         <v>50</v>
       </c>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B25" s="10" t="s">
         <v>51</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B26" s="10" t="s">
         <v>52</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B30" s="10" t="s">
         <v>57</v>
       </c>
@@ -5610,11 +5610,11 @@
         <v>67</v>
       </c>
       <c r="K30" t="str">
-        <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
         <v>gamma_gas:0,800;gamma_oil:0,860;gamma_wat:1,000;rsb_m3m3:80,000;Rp_m3m3:80,000;Pb_atma:150,000;Tres_C:100,000;Bob_m3m3:1,200;Muob_cP:1,000;PVTcorr:0;Ksep_fr:0,000;PKsep_atma:-1,000;TKsep_C:-1,000;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B31" s="10" t="s">
         <v>58</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>Hperf_m:2000,00000;Hpump_m:1500,00000;Udl_m:0,00000;dCas_mm:150,00000;dTub_mm:72,00000;dchoke_mm:15,00000;roughness_m:0,00010;Tbh_C:100,00000;Twh_C:30,00000;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10" t="s">
         <v>53</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>ESP_ID:1005,00000;HeadNom_m:2000,00000;ESPfreq_Hz:60,00000;ESP_U_V:1000,00000;MotorPowerNom_kW:30,00000;Tint_C:80,00000;Tdis_C:-1,00000;KsepGS_fr:0,50000;</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B33" s="10" t="s">
         <v>59</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="15" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B35" s="10" t="s">
         <v>61</v>
       </c>
@@ -5691,20 +5691,20 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:7" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="38" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:7" ht="13.15" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.5">
       <c r="B42" s="16" t="s">
         <v>37</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B43" s="17">
         <v>0.1</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B44" s="17">
         <v>1</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B45" s="17">
         <f>Qmax_/n_</f>
         <v>4.5599999999999996</v>
@@ -5800,7 +5800,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B46" s="17">
         <f t="shared" ref="B46:B69" si="0">Qmax_/n_+B45</f>
         <v>9.1199999999999992</v>
@@ -5826,7 +5826,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B47" s="17">
         <f t="shared" si="0"/>
         <v>13.68</v>
@@ -5852,7 +5852,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B48" s="17">
         <f t="shared" si="0"/>
         <v>18.239999999999998</v>
@@ -5878,7 +5878,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B49" s="17">
         <f t="shared" si="0"/>
         <v>22.799999999999997</v>
@@ -5904,7 +5904,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B50" s="17">
         <f t="shared" si="0"/>
         <v>27.359999999999996</v>
@@ -5930,7 +5930,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B51" s="17">
         <f t="shared" si="0"/>
         <v>31.919999999999995</v>
@@ -5956,7 +5956,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B52" s="17">
         <f t="shared" si="0"/>
         <v>36.479999999999997</v>
@@ -5982,7 +5982,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B53" s="17">
         <f t="shared" si="0"/>
         <v>41.04</v>
@@ -6008,7 +6008,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B54" s="17">
         <f t="shared" si="0"/>
         <v>45.6</v>
@@ -6034,7 +6034,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B55" s="17">
         <f t="shared" si="0"/>
         <v>50.160000000000004</v>
@@ -6060,7 +6060,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17">
         <f t="shared" si="0"/>
         <v>54.720000000000006</v>
@@ -6086,7 +6086,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B57" s="17">
         <f t="shared" si="0"/>
         <v>59.280000000000008</v>
@@ -6112,7 +6112,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B58" s="17">
         <f t="shared" si="0"/>
         <v>63.840000000000011</v>
@@ -6138,7 +6138,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B59" s="17">
         <f t="shared" si="0"/>
         <v>68.400000000000006</v>
@@ -6164,7 +6164,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B60" s="17">
         <f t="shared" si="0"/>
         <v>72.960000000000008</v>
@@ -6190,7 +6190,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B61" s="17">
         <f t="shared" si="0"/>
         <v>77.52000000000001</v>
@@ -6216,7 +6216,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B62" s="17">
         <f t="shared" si="0"/>
         <v>82.080000000000013</v>
@@ -6242,7 +6242,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B63" s="17">
         <f t="shared" si="0"/>
         <v>86.640000000000015</v>
@@ -6268,7 +6268,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B64" s="17">
         <f t="shared" si="0"/>
         <v>91.200000000000017</v>
@@ -6294,7 +6294,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B65" s="17">
         <f t="shared" si="0"/>
         <v>95.760000000000019</v>
@@ -6320,7 +6320,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B66" s="17">
         <f t="shared" si="0"/>
         <v>100.32000000000002</v>
@@ -6346,7 +6346,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B67" s="17">
         <f t="shared" si="0"/>
         <v>104.88000000000002</v>
@@ -6372,7 +6372,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B68" s="17">
         <f t="shared" si="0"/>
         <v>109.44000000000003</v>
@@ -6398,7 +6398,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B69" s="17">
         <f t="shared" si="0"/>
         <v>114.00000000000003</v>
@@ -6424,34 +6424,34 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="81" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="82" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="81" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="82" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="83" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="84" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="85" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="86" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="89" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="91" spans="2:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B96" s="18">
         <v>0</v>
       </c>
@@ -6516,51 +6516,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B99" s="21">
         <f t="array" ref="B99:V100">[1]!Well_Plin_Pwf_atma(Pwf_,Qliq_,fw_,Pcas_,wellStr_,PVTstr_,ESPstr_,,Ksep_,ESPdegr_)</f>
-        <v>60.385776112881828</v>
+        <v>60.488714913640173</v>
       </c>
       <c r="C99" s="21">
-        <v>60.385776112881828</v>
+        <v>60.488714913640173</v>
       </c>
       <c r="D99" s="21">
-        <v>60.495623818484852</v>
+        <v>60.595507838985071</v>
       </c>
       <c r="E99" s="21">
-        <v>177.81862492832119</v>
+        <v>177.92904896358237</v>
       </c>
       <c r="F99" s="24">
-        <v>63.666567916823134</v>
+        <v>63.737707934150279</v>
       </c>
       <c r="G99" s="25">
         <v>100</v>
       </c>
       <c r="H99" s="21">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I99" s="21">
-        <v>1046.7703310581596</v>
+        <v>0</v>
       </c>
       <c r="J99" s="21">
-        <v>31826.913635018565</v>
+        <v>32472.081510478587</v>
       </c>
       <c r="K99" s="21">
         <v>50</v>
       </c>
       <c r="L99" s="21">
-        <v>18.470236281955014</v>
+        <v>18.472685129276414</v>
       </c>
       <c r="M99" s="15">
-        <v>0.95974163028333304</v>
+        <v>0.95986887612278393</v>
       </c>
       <c r="N99" s="15">
-        <v>0.32808708917346202</v>
+        <v>0.32811112636127532</v>
       </c>
       <c r="O99" s="15">
         <v>0.4</v>
@@ -6578,16 +6578,16 @@
         <v>30</v>
       </c>
       <c r="T99">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="U99">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="V99">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B100" t="str">
         <v>Plin</v>
       </c>
@@ -6652,60 +6652,60 @@
         <v>Tbh_C</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B104">
         <f t="array" ref="B104:C104">[1]!Well_calc(Pwf_,Qliq_,fw_,Pcas_,wellStr_,PVTstr_,ESPstr_,,Ksep_,ESPdegr_)</f>
-        <v>60.385776112881828</v>
+        <v>60.488714913640173</v>
       </c>
       <c r="C104">
-        <v>60.385776112881828</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+        <v>60.488714913640173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B107">
         <f t="array" ref="B107:V108">[1]!Well_Pwf_Plin_atma(Plin_,Qliq_,fw_,Pcas_,wellStr_,PVTstr_,ESPstr_,,Ksep_,Psep_,Tsep_,ESPdegr_)</f>
-        <v>77.074397004489271</v>
+        <v>76.999607050947091</v>
       </c>
       <c r="C107">
         <v>25</v>
       </c>
       <c r="D107">
-        <v>25.165557861328125</v>
+        <v>25.161361694335938</v>
       </c>
       <c r="E107">
-        <v>135.29735512305101</v>
+        <v>135.29087408525936</v>
       </c>
       <c r="F107">
-        <v>42.428373771054311</v>
+        <v>42.426928228925824</v>
       </c>
       <c r="G107">
-        <v>77.074397004489271</v>
+        <v>76.999607050947091</v>
       </c>
       <c r="H107">
-        <v>30</v>
+        <v>42.426928228925824</v>
       </c>
       <c r="I107">
-        <v>1343.8427516201775</v>
+        <v>1500</v>
       </c>
       <c r="J107">
-        <v>29471.391460716288</v>
+        <v>30023.328683052034</v>
       </c>
       <c r="K107">
         <v>50</v>
       </c>
       <c r="L107">
-        <v>17.152508608315667</v>
+        <v>17.152224077994994</v>
       </c>
       <c r="M107">
-        <v>0.89127049182780316</v>
+        <v>0.89125570719864855</v>
       </c>
       <c r="N107">
-        <v>0.3083801143458591</v>
+        <v>0.30837417981227183</v>
       </c>
       <c r="O107">
         <v>0.4</v>
@@ -6732,7 +6732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B108" t="str">
         <v>Pwf</v>
       </c>
@@ -6797,51 +6797,51 @@
         <v>Tbh_C</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B112">
         <f t="array" ref="B112:V113">[1]!Well_Pwf_Hdyn_atma(Pwf_,Qliq_,fw_,Pcas_,1000,wellStr_,PVTstr_,ESPstr_,,Ksep_,ESPdegr_)</f>
-        <v>66.043440051807664</v>
+        <v>62.759860234500792</v>
       </c>
       <c r="C112">
-        <v>66.043440051807664</v>
+        <v>62.759860234500792</v>
       </c>
       <c r="D112">
-        <v>66.145126475947876</v>
+        <v>62.863456017733142</v>
       </c>
       <c r="E112">
-        <v>183.98641470529</v>
+        <v>180.42181063068759</v>
       </c>
       <c r="F112">
-        <v>67.348885476981863</v>
+        <v>65.186871802214029</v>
       </c>
       <c r="G112">
-        <v>103.87880819773258</v>
+        <v>101.52869724057111</v>
       </c>
       <c r="H112">
         <v>30</v>
       </c>
       <c r="I112">
-        <v>1000.0431900308855</v>
+        <v>999.28749590730172</v>
       </c>
       <c r="J112">
-        <v>32105.70446452692</v>
+        <v>32593.134080995846</v>
       </c>
       <c r="K112">
         <v>50</v>
       </c>
       <c r="L112">
-        <v>18.625716387897782</v>
+        <v>18.537687724341367</v>
       </c>
       <c r="M112">
-        <v>0.9678206135771158</v>
+        <v>0.96324651004191453</v>
       </c>
       <c r="N112">
-        <v>0.32933554427250089</v>
+        <v>0.32864691412410924</v>
       </c>
       <c r="O112">
         <v>0.4</v>
@@ -6859,16 +6859,16 @@
         <v>30</v>
       </c>
       <c r="T112">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="U112">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="V112">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B113" t="str">
         <v>Plin</v>
       </c>
@@ -6933,57 +6933,57 @@
         <v>Tbh_C</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B117">
         <f t="array" ref="B117:V118">[1]!Nodal_Qliq_scm3day(G31,Plin_,fw_,G30,Pcas_,wellStr_,PVTstr_,ESPstr_,,,ESPdegr_)</f>
-        <v>57.576381117531206</v>
+        <v>57.590824435583343</v>
       </c>
       <c r="C117">
-        <v>25.000504332491435</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>25.325105909703208</v>
+        <v>1.4141498932755505</v>
       </c>
       <c r="E117">
-        <v>144.99060577791892</v>
+        <v>99.438262021956291</v>
       </c>
       <c r="F117">
-        <v>30.704689620909484</v>
+        <v>19.258470183115236</v>
       </c>
       <c r="G117">
-        <v>63.768456568068494</v>
+        <v>50.377596060673326</v>
       </c>
       <c r="H117">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1488.9022914500465</v>
+        <v>0</v>
       </c>
       <c r="J117">
-        <v>34013.493411108575</v>
+        <v>31262.830659608546</v>
       </c>
       <c r="K117">
         <v>50</v>
       </c>
       <c r="L117">
-        <v>19.686975211250843</v>
+        <v>17.821934772878947</v>
       </c>
       <c r="M117">
-        <v>1.02296523965169</v>
+        <v>0.9260548957046485</v>
       </c>
       <c r="N117">
-        <v>0.32504781383126852</v>
+        <v>0.26620156601516548</v>
       </c>
       <c r="O117">
-        <v>0.79372440926474508</v>
+        <v>0.79922290988531008</v>
       </c>
       <c r="P117">
-        <v>0.79372440926474508</v>
+        <v>0.79922290988531008</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -6995,16 +6995,16 @@
         <v>30</v>
       </c>
       <c r="T117">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="U117">
-        <v>82.5</v>
+        <v>82.534999999999997</v>
       </c>
       <c r="V117">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B118" t="str">
         <v>Qliq</v>
       </c>
